--- a/samples/test_sample.xlsx
+++ b/samples/test_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>No.</t>
   </si>
@@ -25,43 +25,7 @@
     <t>SystemPrompt</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Rectosigmoid colon cancer
-    Polypoid, solid, circumferential mass
-    Maximun longitidinal diameter: 8.5 cm
-    Lower tumor border from ARJ: 8.7 cm, anal verge: 12 cm
-    Relation to anterior peritoneal reflection: Above
-   T4a: Tumor invades through visceral peritoneum
-    N2: More tna 4 regional LNds in mesosigmoid , infra mesenteric and mesorecal space.
-     M0: no distant metastasis.
---&gt; Stage IIIC</t>
-  </si>
-  <si>
-    <t>Please convert it according to the following format when you receive content that briefly summarizes the results diagnosed by a doctor.
-        findings_TYPE_2 :
-        1. Tumor Location and Characteristics:
-        - Ulcerative lesion in the distal antrum.
-        - Maximum thickness: 3.2 cm.
-        - Maximum length: 3.5 cm.
-        - T1b classification: tumor invades submucosa.
-        2. Regional Lymph Node Involvement (N2 Stage):
-        - Metastasis in 3-6 regional lymph nodes.
-        - Affected lymph nodes: left gastric, left paracardial, celiac artery, hepatoduodenal, and portal areas.
-        3. Distant Metastasis (M1 Stage):
-        - Metastasis to peripancreatic, retroperitoneal, and pancreaticoduodenal lymph nodes.
-        4. Overall Staging:
-        - Stage IVB, indicating advanced disease with significant spread to both regional and distant sites, necessitating aggressive treatment and management."
-        stomach_ex4_1,"Polypoid
-        cardia
-        Maximum Thichness: 3.9cm
-        Maximum Length: 4.1cm
-        Tis: Carcinoma in situ: Intraepithelial tumor without invasion of lamina propria, high-grade dysplasia
-        N1: Metastasis in 1 or 2 regional lymph nodes
-        N stage LN: Left Paracardial
-        M1: Distant metastasis
-        IVB</t>
+    <t>...</t>
   </si>
 </sst>
 </file>
@@ -131,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -139,13 +103,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -468,15 +429,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="66.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="96.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="72.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="113.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="65.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="66.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="96.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="72.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="113.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="65.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,298 +447,186 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="690">
-      <c r="A2" s="4">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="419.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="647.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="547.5">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="433.5">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="467.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="557.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="489.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="489.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="467.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="512.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="478.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="332.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="422.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="264.75">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="321">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A17" s="7"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A18" s="7"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A18" s="6"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A19" s="7"/>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A19" s="6"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A20" s="7"/>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A20" s="6"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A21" s="7"/>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A21" s="6"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A22" s="7"/>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A22" s="6"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A23" s="7"/>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A23" s="6"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>

--- a/samples/test_sample.xlsx
+++ b/samples/test_sample.xlsx
@@ -437,7 +437,7 @@
     <col min="6" max="6" style="8" width="65.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +451,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="419.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
